--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>820031.8732004833</v>
+        <v>827239.8021360049</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6465050.950138944</v>
+        <v>5312247.587582164</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4913218.392264781</v>
+        <v>3783355.816622882</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7876462.840758412</v>
+        <v>8333796.598385546</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>357.5802778044132</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>403.2658873081456</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>192.4527066050993</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>315.5618427040617</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>161.5901221570373</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1111,13 +1113,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1138,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>124.1372441148409</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>329.51266799642</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>279.1156315576808</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1388,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>29.53925791396994</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1613,16 +1615,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>334.6563275258218</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.575621745596433</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1850,19 +1852,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>234.311581811281</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2002,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>173.1829699878629</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="D20" t="n">
-        <v>346.3533159897248</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>109.6169299062874</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2302,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>32.496412363311</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260364</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19.00594371568499</v>
+        <v>42.95654953366415</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>364.349651285939</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2570,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.2279701699385</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2716,19 +2718,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>37.84255357379563</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>360.5621482941648</v>
       </c>
     </row>
     <row r="30">
@@ -2950,19 +2952,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V31" t="n">
-        <v>221.7112730345248</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>42.43741174507699</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>118.1609477474692</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3317,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3430,19 +3432,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>33.74095660611388</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.0002589579186</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.72590661310004</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>288.5020124848064</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>117.4784251967216</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>140.548818152191</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>241.4498045374119</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>116.1561230954551</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>226.5346450445541</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>229.2663389906592</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.197320963348</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C2" t="n">
-        <v>819.0727302766182</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D2" t="n">
-        <v>457.8805304741806</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E2" t="n">
-        <v>457.8805304741806</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F2" t="n">
-        <v>457.8805304741806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>457.8805304741806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9720331018986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>60.62027041897176</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>60.62027041897176</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>810.7961168537472</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>1560.971963288523</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>2204.602819705628</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>2733.759517624779</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2990.456875259023</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2773.953029208098</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.115474544579</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2040.355173679747</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2040.355173679747</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.418500627838</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1663.355166984622</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>1529.360095733568</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>1412.462937952961</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>1291.970121945289</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>1183.010242127793</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>1076.020129442132</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>1005.272916477848</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>984.5243250980881</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J3" t="n">
-        <v>984.5243250980881</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>984.5243250980881</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>984.5243250980881</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>1547.321064605288</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>2297.496911040063</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O3" t="n">
-        <v>3001.454001585958</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>3001.454001585958</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>3001.454001585958</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2923.023511062897</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2763.681647249905</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2566.330836388124</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2352.619309381158</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2139.386141117486</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1963.060159256379</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1803.658199620209</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1149.954120720108</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>978.860748281825</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>819.3661036047349</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>658.4552884730543</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>493.8241625836456</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>326.573771509189</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>176.9663163146456</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1403.627398919732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1403.627398919732</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1337.653827114153</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2220.148943453051</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C5" t="n">
-        <v>1810.024352766321</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D5" t="n">
-        <v>1615.627679427837</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.287463944734</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F5" t="n">
-        <v>780.2570518984217</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G5" t="n">
-        <v>371.5287677912538</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>60.62027041897176</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>174.4395718496941</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>887.0309716619321</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1637.206818096708</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>2387.382664531483</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>3031.013520948588</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>3031.013520948588</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>3031.013520948588</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>3031.013520948588</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.370123117541</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y5" t="n">
-        <v>2630.370123117541</v>
+        <v>762.8947626663735</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>60.62027041897176</v>
+        <v>81.91922121582746</v>
       </c>
       <c r="K6" t="n">
-        <v>60.62027041897176</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="L6" t="n">
-        <v>60.62027041897176</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M6" t="n">
-        <v>810.7961168537472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.592856360948</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.62027041897176</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C7" t="n">
-        <v>60.62027041897176</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D7" t="n">
-        <v>60.62027041897176</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E7" t="n">
-        <v>60.62027041897176</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1504.746448715222</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1318.354680595132</v>
+        <v>1407.941636637283</v>
       </c>
       <c r="T7" t="n">
-        <v>1078.805941571834</v>
+        <v>1168.392897613985</v>
       </c>
       <c r="U7" t="n">
-        <v>796.0077941179582</v>
+        <v>885.5947501601092</v>
       </c>
       <c r="V7" t="n">
-        <v>522.1220490574801</v>
+        <v>885.5947501601092</v>
       </c>
       <c r="W7" t="n">
-        <v>243.0523845663545</v>
+        <v>885.5947501601092</v>
       </c>
       <c r="X7" t="n">
-        <v>60.62027041897176</v>
+        <v>885.5947501601092</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.62027041897176</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>879.4731452128694</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C8" t="n">
-        <v>469.3485545261396</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D8" t="n">
-        <v>469.3485545261396</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E8" t="n">
-        <v>469.3485545261396</v>
+        <v>1046.720571278846</v>
       </c>
       <c r="F8" t="n">
-        <v>469.3485545261396</v>
+        <v>625.6901592325335</v>
       </c>
       <c r="G8" t="n">
-        <v>60.62027041897176</v>
+        <v>216.9618751253656</v>
       </c>
       <c r="H8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>60.62027041897176</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>773.2116702312098</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>1523.387516665985</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N8" t="n">
-        <v>2273.563363100761</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O8" t="n">
-        <v>2917.194219517866</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P8" t="n">
-        <v>3031.013520948588</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>2773.953029208098</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.115474544579</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W8" t="n">
-        <v>2091.274395760316</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X8" t="n">
-        <v>1690.630997929269</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.694324877359</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>516.4265266842705</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L9" t="n">
-        <v>795.2277273461663</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M9" t="n">
-        <v>795.2277273461663</v>
+        <v>560.4447326467969</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.403573780942</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O9" t="n">
-        <v>1545.403573780942</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1149.954120720108</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C10" t="n">
-        <v>978.860748281825</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>819.3661036047349</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>658.4552884730543</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>326.573771509189</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S10" t="n">
-        <v>1590.019167039822</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T10" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U10" t="n">
-        <v>1590.019167039822</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V10" t="n">
-        <v>1590.019167039822</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W10" t="n">
-        <v>1590.019167039822</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X10" t="n">
-        <v>1562.389525725388</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y10" t="n">
-        <v>1337.653827114153</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1231.125098201269</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C11" t="n">
-        <v>1231.125098201269</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D11" t="n">
-        <v>1231.125098201269</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E11" t="n">
-        <v>1231.125098201269</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>810.0946861549569</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>401.3664020477891</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45790467550705</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K11" t="n">
-        <v>133.8829261601292</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L11" t="n">
-        <v>846.4743259723672</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>1596.650172407143</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>2346.826018841918</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>2990.456875259023</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>2990.456875259023</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>2895.732445742689</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>2673.525961689548</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>2416.465469949058</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V11" t="n">
-        <v>2416.465469949058</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W11" t="n">
-        <v>2032.705169084227</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X11" t="n">
-        <v>1632.061771253179</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="Y11" t="n">
-        <v>1231.125098201269</v>
+        <v>2829.453393110666</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>253.433127981605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K12" t="n">
-        <v>253.433127981605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L12" t="n">
-        <v>253.433127981605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M12" t="n">
-        <v>977.5296357880828</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N12" t="n">
-        <v>1727.705482222858</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O12" t="n">
-        <v>1727.705482222858</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P12" t="n">
-        <v>1727.705482222858</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2077.549946906842</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.954120720108</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C13" t="n">
-        <v>978.860748281825</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D13" t="n">
-        <v>819.3661036047349</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E13" t="n">
-        <v>658.4552884730543</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F13" t="n">
-        <v>493.8241625836456</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G13" t="n">
-        <v>326.573771509189</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H13" t="n">
-        <v>176.9663163146456</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="X13" t="n">
-        <v>1562.389525725388</v>
+        <v>1593.339974760225</v>
       </c>
       <c r="Y13" t="n">
-        <v>1337.653827114153</v>
+        <v>1368.60427614899</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1213.245485483168</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C14" t="n">
-        <v>803.1208947964384</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D14" t="n">
-        <v>398.6569648894989</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E14" t="n">
-        <v>60.62027041897176</v>
+        <v>924.9411547442555</v>
       </c>
       <c r="F14" t="n">
-        <v>60.62027041897176</v>
+        <v>503.9107426979431</v>
       </c>
       <c r="G14" t="n">
-        <v>60.62027041897176</v>
+        <v>95.18245859077524</v>
       </c>
       <c r="H14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>248.3570846580825</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L14" t="n">
-        <v>960.9484844703205</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M14" t="n">
-        <v>1711.124330905096</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.300177339871</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O14" t="n">
-        <v>2461.300177339871</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P14" t="n">
-        <v>2990.456875259023</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q14" t="n">
-        <v>2990.456875259023</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T14" t="n">
-        <v>2808.807036895447</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U14" t="n">
-        <v>2808.807036895447</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V14" t="n">
-        <v>2808.807036895447</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W14" t="n">
-        <v>2425.046736030615</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X14" t="n">
-        <v>2024.403338199568</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y14" t="n">
-        <v>1623.466665147658</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>516.4265266842705</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>1177.514698603559</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M15" t="n">
-        <v>1927.690545038334</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N15" t="n">
-        <v>1927.690545038334</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1149.954120720108</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C16" t="n">
-        <v>978.860748281825</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D16" t="n">
-        <v>819.3661036047349</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E16" t="n">
-        <v>658.4552884730543</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F16" t="n">
-        <v>493.8241625836456</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G16" t="n">
-        <v>326.573771509189</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H16" t="n">
-        <v>176.9663163146456</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="X16" t="n">
-        <v>1562.389525725388</v>
+        <v>1593.339974760225</v>
       </c>
       <c r="Y16" t="n">
-        <v>1337.653827114153</v>
+        <v>1368.60427614899</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1111.887156478582</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>701.7625657918517</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>297.2986358849122</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>60.62027041897176</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>60.62027041897176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>60.62027041897176</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>60.62027041897176</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>60.62027041897176</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>598.7797715280112</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>960.9484844703205</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1711.124330905096</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>2461.300177339871</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2461.300177339871</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2990.456875259023</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2990.456875259023</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>3031.013520948588</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2895.732445742689</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>2673.525961689548</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>2673.525961689548</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>2323.688407026028</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>2323.688407026028</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>1923.045009194981</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>1522.108336143071</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>739.4511123055061</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>605.4560410544518</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>488.5588832738442</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>368.0660672661722</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>259.1061874486768</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1160747630155</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>81.36886179873159</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>60.62027041897176</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M18" t="n">
-        <v>810.7961168537472</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1195.559109096958</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1195.559109096958</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1757.265001585488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1999.119456383781</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1839.777592570789</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1642.426781709008</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1428.715254702041</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1215.48208643837</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1039.156104577263</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.7541449410927</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.62027041897176</v>
+        <v>1021.666732860079</v>
       </c>
       <c r="C19" t="n">
-        <v>60.62027041897176</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D19" t="n">
-        <v>60.62027041897176</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E19" t="n">
-        <v>60.62027041897176</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>60.62027041897176</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>60.62027041897176</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>60.62027041897176</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>74.70281982418228</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>229.2551475464203</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>489.1522478264808</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>778.4163042669741</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.255086661224</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1318.815696987699</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1524.491137237311</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1547.153094570048</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1264.354947116172</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>990.4692020556938</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>711.3995375645682</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X19" t="n">
-        <v>473.0556754242515</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.3199768130162</v>
+        <v>1209.366439254123</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2494.579294402201</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.454703715471</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4090.140845814479</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3706.380544949648</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3305.7371471186</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2904.80047406669</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.951486148634</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="C22" t="n">
-        <v>844.951486148634</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D22" t="n">
-        <v>685.4568414715441</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E22" t="n">
-        <v>685.4568414715441</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F22" t="n">
-        <v>520.8257155821353</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G22" t="n">
-        <v>353.5753245076787</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>203.9678693131354</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X22" t="n">
-        <v>1069.687184759869</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.951486148634</v>
+        <v>242.8511528851661</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>228.787666531433</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="C25" t="n">
-        <v>228.787666531433</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="D25" t="n">
-        <v>228.787666531433</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="E25" t="n">
-        <v>228.787666531433</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="F25" t="n">
-        <v>228.787666531433</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="G25" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
         <v>209.5897435862967</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1153.452678737507</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>879.5669336770293</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W25" t="n">
-        <v>879.5669336770293</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X25" t="n">
-        <v>641.2230715367127</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.4873729254774</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2238.282892603803</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C26" t="n">
-        <v>1828.158301917073</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D26" t="n">
-        <v>1423.694372010133</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6224,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4440.742490420091</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4183.681998679601</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.844444016082</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3450.08414315125</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3049.440745320202</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y26" t="n">
-        <v>2648.504072268292</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="27">
@@ -6309,10 +6311,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6506,7 +6508,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3785.072964682925</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C31" t="n">
-        <v>3785.072964682925</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>3625.578320005835</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
         <v>3132.785987910289</v>
@@ -6646,25 +6648,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>4475.79311641105</v>
+        <v>4507.614037045773</v>
       </c>
       <c r="V31" t="n">
-        <v>4251.842335568095</v>
+        <v>4233.728291985295</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.77267107697</v>
+        <v>3954.658627494169</v>
       </c>
       <c r="X31" t="n">
-        <v>3972.77267107697</v>
+        <v>3716.314765353853</v>
       </c>
       <c r="Y31" t="n">
-        <v>3972.77267107697</v>
+        <v>3491.579066742617</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6786,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>573.4391700005397</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C34" t="n">
-        <v>402.3457975622561</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4619.318812061365</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>4336.520664607489</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.288101637262</v>
+        <v>4062.634919547011</v>
       </c>
       <c r="W34" t="n">
-        <v>1224.218437146136</v>
+        <v>3783.565255055886</v>
       </c>
       <c r="X34" t="n">
-        <v>985.8745750058193</v>
+        <v>3545.221392915569</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.138876394584</v>
+        <v>3320.485694304334</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C35" t="n">
         <v>2139.066799289355</v>
@@ -6938,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6965,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O36" t="n">
-        <v>1914.095216421104</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>3612.981460220206</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>3441.888087781923</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4542.830391856929</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>4263.760727365803</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>4025.416865225486</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>3800.681166614251</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,10 +7201,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
         <v>4494.590496051882</v>
@@ -7263,16 +7265,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.216283632599</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1544.131577530564</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1357.739809410474</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1118.191070387176</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>835.3929229333004</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>835.3929229333004</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>837.543623783007</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>837.543623783007</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1153.452678737507</v>
+        <v>3540.635908316661</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>3369.542535878378</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>3210.047891201288</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3063.219625474818</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3217.771953197056</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3477.669053477116</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3766.933109917609</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4047.77189231186</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4307.332502638334</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4513.007942887946</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4493.263254365856</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>4306.871486245766</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>4067.322747222468</v>
       </c>
       <c r="U43" t="n">
-        <v>1153.452678737507</v>
+        <v>3784.524599768592</v>
       </c>
       <c r="V43" t="n">
-        <v>1153.452678737507</v>
+        <v>3540.635908316661</v>
       </c>
       <c r="W43" t="n">
-        <v>1153.452678737507</v>
+        <v>3540.635908316661</v>
       </c>
       <c r="X43" t="n">
-        <v>1153.452678737507</v>
+        <v>3540.635908316661</v>
       </c>
       <c r="Y43" t="n">
-        <v>1153.452678737507</v>
+        <v>3540.635908316661</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2229.43345006563</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C44" t="n">
-        <v>1819.308859378901</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.979442110764</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E44" t="n">
-        <v>1287.639226627661</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F44" t="n">
-        <v>866.6088145813485</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G44" t="n">
-        <v>457.8805304741806</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H44" t="n">
-        <v>146.9720331018986</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>133.8829261601292</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>133.8829261601292</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>846.4743259723672</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M44" t="n">
-        <v>1596.650172407143</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>2346.826018841918</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>2990.456875259023</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>2990.456875259023</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V44" t="n">
-        <v>3031.013520948588</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W44" t="n">
-        <v>3031.013520948588</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X44" t="n">
-        <v>2630.370123117541</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y44" t="n">
-        <v>2229.43345006563</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>60.62027041897176</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>60.62027041897176</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>721.7084423382601</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.592856360948</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N45" t="n">
-        <v>1373.592856360948</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O45" t="n">
-        <v>2077.549946906842</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P45" t="n">
-        <v>2077.549946906842</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q45" t="n">
-        <v>2077.549946906842</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1504.746448715222</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1318.354680595132</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.805941571834</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U46" t="n">
-        <v>796.0077941179582</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V46" t="n">
-        <v>796.0077941179582</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W46" t="n">
-        <v>516.9381296268325</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X46" t="n">
-        <v>285.3559690302071</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M2" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>850.6656709937663</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>349.3240646357621</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>626.0458387961952</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>810.9467736308969</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>204.1053810173811</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>850.6656709937663</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8237,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>91.92897171537922</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>815.3176639755644</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.6749484515281</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8316,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>208.6183546250479</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8532,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>337.7318982168044</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747686</v>
       </c>
       <c r="N9" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K11" t="n">
-        <v>163.1390722400428</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>788.9748976843546</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>278.7695353692886</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>815.3176639755644</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>238.9827125668056</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3123808328542</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9246,22 +9248,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M18" t="n">
-        <v>815.3176639755644</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>441.8428805081047</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9416,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9486,13 +9488,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>745.8914891781321</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9957,13 +9959,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10586,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P36" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10911,10 +10913,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>527.9363279870926</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10923,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.3262739001336</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>732.4707174652381</v>
       </c>
       <c r="M44" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M45" t="n">
-        <v>716.0333888118391</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.8390128034568</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>13.55422061770372</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22753,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>207.9665840027708</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22835,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22844,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>81.36546361732911</v>
       </c>
     </row>
     <row r="6">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>22.93772828185158</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23024,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>183.6621682837183</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>50.41002985976309</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>127.0033363101638</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>55.94898714212763</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>75.54048580245041</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>304.2237906529627</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23549,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>175.8852315169912</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>194.7158398879884</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>49.30537163726004</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="D20" t="n">
-        <v>54.06597461814522</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>5.565655530429666</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>203.4640111556024</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08319717252283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>146.571943448027</v>
+        <v>122.6213376300479</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>45.84716204233325</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.756449042671278</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>120.0571446565234</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>36.36515802722602</v>
       </c>
     </row>
     <row r="30">
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V31" t="n">
-        <v>49.43561457534844</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25090,7 +25092,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25126,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879879</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>152.9859398624041</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>237.4059310037594</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>14.30144802244516</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.694084528254308</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>117.6169553830382</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.0114616263634</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>28.83362056170967</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>29.69708307246137</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>284.263167512415</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>183.6621682837182</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>6.69408452825428</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601198.7133277663</v>
+        <v>504618.1230009597</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>601198.7133277664</v>
+        <v>504618.1230009598</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>601198.7133277664</v>
+        <v>759734.0271980196</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>601198.7133277664</v>
+        <v>759734.0271980197</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>601198.7133277663</v>
+        <v>759734.0271980196</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>601198.7133277666</v>
+        <v>768303.4062584921</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768303.4062584923</v>
+        <v>768303.4062584921</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>768303.406258492</v>
+        <v>768303.4062584923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768303.4062584919</v>
+        <v>768303.4062584924</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>768303.4062584921</v>
+        <v>768303.406258492</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>768303.406258492</v>
+        <v>759734.0271980194</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>601198.7133277664</v>
+        <v>759734.0271980197</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226662.6817485717</v>
+        <v>190259.0141861052</v>
       </c>
       <c r="C2" t="n">
-        <v>226662.6817485717</v>
+        <v>190259.0141861052</v>
       </c>
       <c r="D2" t="n">
-        <v>226662.6817485717</v>
+        <v>286418.6517992343</v>
       </c>
       <c r="E2" t="n">
-        <v>226662.6817485717</v>
+        <v>286418.6517992342</v>
       </c>
       <c r="F2" t="n">
-        <v>226662.6817485717</v>
+        <v>286418.6517992342</v>
       </c>
       <c r="G2" t="n">
-        <v>226662.6817485717</v>
+        <v>289648.6675350939</v>
       </c>
       <c r="H2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="I2" t="n">
         <v>289648.6675350937</v>
       </c>
       <c r="J2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="K2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="K2" t="n">
-        <v>289648.6675350937</v>
-      </c>
       <c r="L2" t="n">
-        <v>289648.6675350937</v>
+        <v>289648.6675350939</v>
       </c>
       <c r="M2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="N2" t="n">
         <v>289648.6675350939</v>
       </c>
-      <c r="N2" t="n">
-        <v>289648.6675350938</v>
-      </c>
       <c r="O2" t="n">
-        <v>289648.6675350938</v>
+        <v>286418.651799234</v>
       </c>
       <c r="P2" t="n">
-        <v>226662.6817485718</v>
+        <v>286418.6517992341</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253940.5860452134</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
-        <v>110026.1786092112</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>198261.625418768</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35087.34231719395</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
-        <v>35087.34231719396</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="D4" t="n">
-        <v>35087.34231719395</v>
+        <v>44415.63883566284</v>
       </c>
       <c r="E4" t="n">
-        <v>35087.34231719396</v>
+        <v>44415.63883566284</v>
       </c>
       <c r="F4" t="n">
-        <v>35087.34231719396</v>
+        <v>44415.63883566284</v>
       </c>
       <c r="G4" t="n">
-        <v>35087.34231719395</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090265</v>
@@ -26454,10 +26456,10 @@
         <v>44919.86535090265</v>
       </c>
       <c r="O4" t="n">
-        <v>44919.86535090265</v>
+        <v>44415.63883566284</v>
       </c>
       <c r="P4" t="n">
-        <v>35087.34231719395</v>
+        <v>44415.63883566284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>79699.00551841853</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
-        <v>46071.40551841853</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142064.2521322542</v>
+        <v>-79470.05325364684</v>
       </c>
       <c r="C6" t="n">
-        <v>111876.3339129592</v>
+        <v>95485.45663946727</v>
       </c>
       <c r="D6" t="n">
-        <v>111876.3339129593</v>
+        <v>-54607.38425649163</v>
       </c>
       <c r="E6" t="n">
-        <v>145503.9339129592</v>
+        <v>172409.2661786764</v>
       </c>
       <c r="F6" t="n">
-        <v>145503.9339129593</v>
+        <v>172409.2661786764</v>
       </c>
       <c r="G6" t="n">
-        <v>145503.9339129592</v>
+        <v>168131.8639388546</v>
       </c>
       <c r="H6" t="n">
-        <v>63837.41333010675</v>
+        <v>173863.5919393179</v>
       </c>
       <c r="I6" t="n">
         <v>173863.5919393178</v>
       </c>
       <c r="J6" t="n">
-        <v>-24398.03347945015</v>
+        <v>37268.79113342283</v>
       </c>
       <c r="K6" t="n">
-        <v>173863.5919393178</v>
+        <v>173863.5919393179</v>
       </c>
       <c r="L6" t="n">
-        <v>173863.5919393178</v>
+        <v>16296.62106178793</v>
       </c>
       <c r="M6" t="n">
         <v>173863.5919393179</v>
       </c>
       <c r="N6" t="n">
-        <v>173863.5919393178</v>
+        <v>173863.5919393179</v>
       </c>
       <c r="O6" t="n">
-        <v>173863.5919393178</v>
+        <v>172409.2661786762</v>
       </c>
       <c r="P6" t="n">
-        <v>145503.9339129593</v>
+        <v>172409.2661786763</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
-        <v>757.753380237147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.546221132785</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.7533802371468</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M2" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>259.29026023661</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>568.4815550577778</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>114.9689913441639</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>40.55973291537921</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>568.4815550577781</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>114.9689913441638</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>281.6173744059553</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>473.6101143363512</v>
       </c>
       <c r="N9" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K11" t="n">
-        <v>74.00268256682565</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>731.4106139459371</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>189.6331456960715</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>757.753380237147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>181.2312335668056</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>365.8269827700094</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M18" t="n">
-        <v>757.753380237147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>388.6494871143547</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36136,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36206,13 +36208,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>688.3272054397147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P36" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37631,10 +37633,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>474.7429345933426</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.00268256682565</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>636.9853194023932</v>
       </c>
       <c r="M44" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M45" t="n">
-        <v>658.4691050734217</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>827239.8021360049</v>
+        <v>824456.8129954281</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3783355.816622882</v>
+        <v>3783355.816622884</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>403.2658873081456</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.387972371598104</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>122.1857609060765</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -834,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.5618427040617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>161.5901221570373</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>124.1372441148409</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>36.32225092889146</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.1821651292103</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1156315576808</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>273.4159542977061</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>98.4126256305213</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>3.575621745596433</v>
+        <v>124.1372441148409</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.56310642661438</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.1829699878629</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>363.9585094926619</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>32.496412363311</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42.95654953366415</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>364.349651285939</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>243.833185100996</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>37.84255357379563</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2857,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>261.9522503562252</v>
       </c>
       <c r="Y29" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>153.0251390105127</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3043,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>42.43741174507699</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V37" t="n">
-        <v>33.74095660611388</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0002589579186</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>288.5020124848064</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>84.76227032663424</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>241.4498045374119</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>226.5346450445541</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>92.41317319977431</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672384</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219433</v>
+        <v>872.9257740776259</v>
       </c>
       <c r="E2" t="n">
-        <v>449.10436573884</v>
+        <v>872.9257740776259</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>451.8953620313134</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>43.16707792414559</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>43.16707792414559</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,25 +4333,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4372,10 +4372,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.227134123859</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4521,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>497.0665631046558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.673583001884</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C5" t="n">
-        <v>352.673583001884</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D5" t="n">
-        <v>352.673583001884</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E5" t="n">
-        <v>352.673583001884</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F5" t="n">
-        <v>352.673583001884</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1482.28749656213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1081.644098731082</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>762.8947626663735</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>81.91922121582746</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811262</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
+        <v>1268.263812524886</v>
+      </c>
+      <c r="N6" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.8950437660649</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>526.8016713277814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1407.941636637283</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1168.392897613985</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>885.5947501601092</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>885.5947501601092</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>885.5947501601092</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>885.5947501601092</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>885.5947501601092</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2275.649307355618</v>
+        <v>2497.85579140876</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.524716668889</v>
+        <v>2087.73120072203</v>
       </c>
       <c r="D8" t="n">
-        <v>1461.060786761949</v>
+        <v>1683.26727081509</v>
       </c>
       <c r="E8" t="n">
-        <v>1046.720571278846</v>
+        <v>1268.927055331987</v>
       </c>
       <c r="F8" t="n">
-        <v>625.6901592325335</v>
+        <v>847.8966432856746</v>
       </c>
       <c r="G8" t="n">
-        <v>216.9618751253656</v>
+        <v>439.1683591785068</v>
       </c>
       <c r="H8" t="n">
-        <v>91.57071945380915</v>
+        <v>128.2598618062248</v>
       </c>
       <c r="I8" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>345.7561909215634</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K8" t="n">
-        <v>883.9156920306029</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L8" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M8" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N8" t="n">
-        <v>3126.006699473213</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O8" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P8" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q8" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
         <v>4578.535972690457</v>
@@ -4834,22 +4834,22 @@
         <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.048413431417</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="U8" t="n">
-        <v>4221.048413431417</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="V8" t="n">
-        <v>3871.210858767897</v>
+        <v>4093.417342821038</v>
       </c>
       <c r="W8" t="n">
-        <v>3487.450557903066</v>
+        <v>3709.657041956207</v>
       </c>
       <c r="X8" t="n">
-        <v>3086.807160072018</v>
+        <v>3309.013644125159</v>
       </c>
       <c r="Y8" t="n">
-        <v>2685.870487020108</v>
+        <v>2908.076971073249</v>
       </c>
     </row>
     <row r="9">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.57071945380915</v>
+        <v>261.4516943317993</v>
       </c>
       <c r="C10" t="n">
         <v>91.57071945380915</v>
@@ -4986,28 +4986,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1349.305129629969</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T10" t="n">
-        <v>1109.756390606671</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U10" t="n">
-        <v>826.9582431527954</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="V10" t="n">
-        <v>553.0724980923173</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="W10" t="n">
-        <v>274.0028336011917</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="X10" t="n">
-        <v>91.57071945380915</v>
+        <v>673.887099337079</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.57071945380915</v>
+        <v>449.1514007258437</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2547.518411739271</v>
+        <v>2143.054481832331</v>
       </c>
       <c r="C11" t="n">
-        <v>2137.393821052541</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="D11" t="n">
         <v>1732.929891145602</v>
@@ -5083,10 +5083,10 @@
         <v>3230.390066162576</v>
       </c>
       <c r="X11" t="n">
-        <v>3230.390066162576</v>
+        <v>2954.212334548731</v>
       </c>
       <c r="Y11" t="n">
-        <v>2829.453393110666</v>
+        <v>2553.275661496821</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L12" t="n">
-        <v>91.57071945380915</v>
+        <v>945.4717489357306</v>
       </c>
       <c r="M12" t="n">
-        <v>934.5478001483758</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="N12" t="n">
-        <v>1808.205892259994</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O12" t="n">
         <v>2138.059915304309</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1180.904569754946</v>
+        <v>207.916765349483</v>
       </c>
       <c r="C13" t="n">
-        <v>1009.811197316662</v>
+        <v>207.916765349483</v>
       </c>
       <c r="D13" t="n">
-        <v>850.3165526395721</v>
+        <v>207.916765349483</v>
       </c>
       <c r="E13" t="n">
-        <v>689.4057375078917</v>
+        <v>207.916765349483</v>
       </c>
       <c r="F13" t="n">
-        <v>524.7746116184829</v>
+        <v>207.916765349483</v>
       </c>
       <c r="G13" t="n">
-        <v>357.5242205440263</v>
+        <v>207.916765349483</v>
       </c>
       <c r="H13" t="n">
         <v>207.916765349483</v>
@@ -5229,22 +5229,22 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1620.969616074659</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>1620.969616074659</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.969616074659</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>1620.969616074659</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.339974760225</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
-        <v>1368.60427614899</v>
+        <v>207.916765349483</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2153.869890821028</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.745300134298</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.281370227359</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E14" t="n">
-        <v>924.9411547442555</v>
+        <v>1046.720571278846</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9107426979431</v>
+        <v>625.6901592325335</v>
       </c>
       <c r="G14" t="n">
-        <v>95.18245859077524</v>
+        <v>216.9618751253656</v>
       </c>
       <c r="H14" t="n">
         <v>91.57071945380915</v>
@@ -5281,49 +5281,49 @@
         <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>883.9156920306029</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L14" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M14" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.006699473213</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>4099.268996896826</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V14" t="n">
-        <v>3749.431442233307</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W14" t="n">
-        <v>3365.671141368475</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X14" t="n">
-        <v>2965.027743537428</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y14" t="n">
-        <v>2564.091070485518</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K15" t="n">
-        <v>91.57071945380915</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="L15" t="n">
-        <v>91.57071945380915</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="M15" t="n">
-        <v>934.5478001483758</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="N15" t="n">
-        <v>1808.205892259994</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.059915304309</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P15" t="n">
         <v>2138.059915304309</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1180.904569754946</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>1009.811197316662</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>850.3165526395721</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>689.4057375078917</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>524.7746116184829</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>357.5242205440263</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
         <v>91.57071945380915</v>
@@ -5466,22 +5466,22 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1620.969616074659</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U16" t="n">
-        <v>1620.969616074659</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V16" t="n">
-        <v>1620.969616074659</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W16" t="n">
-        <v>1620.969616074659</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X16" t="n">
-        <v>1593.339974760225</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y16" t="n">
-        <v>1368.60427614899</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>592.7987223006619</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1021.666732860079</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>850.5733604217953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.298732171156</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.366439254123</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>242.8511528851661</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.5876528552483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>402.5876528552483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>402.5876528552483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>402.5876528552483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>402.5876528552483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>828.6312213896092</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>828.6312213896092</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>590.2873592492926</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>590.2873592492926</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2502.881125286859</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2092.756534600129</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1688.29260469319</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3314.038978003258</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2913.102304951348</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>592.7987223006619</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3287.356835395656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>4388.299139470661</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>4109.229474979536</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>3870.885612839219</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>3646.149914227984</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6505,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2549.191389976085</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4507.614037045773</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>4233.728291985295</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>3954.658627494169</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>3716.314765353853</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>3491.579066742617</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4619.318812061365</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4336.520664607489</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>4062.634919547011</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>3783.565255055886</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>3545.221392915569</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>3320.485694304334</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>4332.330861486824</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3612.981460220206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3441.888087781923</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>4542.830391856929</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>4263.760727365803</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>4025.416865225486</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>3800.681166614251</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7201,10 +7201,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
         <v>4494.590496051882</v>
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.429368843485</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>837.543623783007</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>837.543623783007</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>837.543623783007</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2137.393821052541</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C41" t="n">
         <v>2137.393821052541</v>
@@ -7411,22 +7411,22 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>801.9397584267342</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
         <v>4216.818320205601</v>
@@ -7438,25 +7438,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4443.254897484558</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.048413431417</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="U41" t="n">
-        <v>3963.987921690927</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V41" t="n">
-        <v>3614.150367027407</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W41" t="n">
-        <v>3230.390066162576</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X41" t="n">
-        <v>2829.746668331528</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2428.809995279618</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>91.57071945380915</v>
+        <v>109.6151299472086</v>
       </c>
       <c r="K42" t="n">
-        <v>547.3769757191078</v>
+        <v>565.4213862125073</v>
       </c>
       <c r="L42" t="n">
-        <v>1208.465147638396</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M42" t="n">
         <v>1226.509558131796</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3540.635908316661</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>3369.542535878378</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>3210.047891201288</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>3063.219625474818</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>3217.771953197056</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>3477.669053477116</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>3766.933109917609</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>4047.77189231186</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>4307.332502638334</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>4513.007942887946</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>4578.535972690457</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>4493.263254365856</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>4306.871486245766</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>4067.322747222468</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U43" t="n">
-        <v>3784.524599768592</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V43" t="n">
-        <v>3540.635908316661</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W43" t="n">
-        <v>3540.635908316661</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X43" t="n">
-        <v>3540.635908316661</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y43" t="n">
-        <v>3540.635908316661</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2275.649307355618</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C44" t="n">
-        <v>1865.524716668889</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D44" t="n">
-        <v>1461.060786761949</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E44" t="n">
         <v>1232.237912979571</v>
@@ -7654,46 +7654,46 @@
         <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R44" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>4443.254897484558</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T44" t="n">
-        <v>4221.048413431417</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.048413431417</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V44" t="n">
-        <v>3871.210858767897</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W44" t="n">
-        <v>3487.450557903066</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X44" t="n">
-        <v>3086.807160072018</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y44" t="n">
-        <v>2685.870487020108</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>284.3835770164424</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>740.1898332817411</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L45" t="n">
-        <v>1226.509558131796</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M45" t="n">
         <v>1226.509558131796</v>
@@ -7836,19 +7836,19 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.420877051361</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.622729597485</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V46" t="n">
-        <v>824.7369845370074</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W46" t="n">
-        <v>545.6673200458818</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X46" t="n">
-        <v>307.3234579055651</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y46" t="n">
         <v>91.57071945380915</v>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>272.0504334731807</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,16 +8072,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>72.2360729453882</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519242</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>292.3871721926164</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>91.92897171537922</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
@@ -8306,10 +8306,10 @@
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>359.4030239885891</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>551.1310269936539</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>549.9278720016724</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>478.3635137823111</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>560.7155587704844</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>560.7155587704844</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10667,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>545.3471050134931</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606004</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11147,7 +11147,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11302,7 +11302,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>732.4707174652381</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>547.3465691139343</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>84.10027268449946</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47.19667780782412</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22837,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22846,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>81.36546361732911</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -22992,7 +22992,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>22.93772828185158</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>183.6621682837183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>49.16599412720611</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>1.200273584690393</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.0033363101638</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>123.2210095550309</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>124.0757159946016</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.2237906529627</v>
+        <v>183.6621682837183</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.30537163726004</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>42.06483528720065</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>203.4640111556024</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>122.6213376300479</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>45.84716204233325</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>10.656701722089</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>120.0571446565234</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24621,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24891,10 +24891,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>126.9450269688244</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>194.7158398879879</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25329,7 +25329,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V37" t="n">
-        <v>237.4059310037594</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>14.30144802244516</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>117.6169553830382</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.16599412720591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.69708307246137</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>183.6621682837182</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>304.2237906529627</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884518</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504618.1230009598</v>
+        <v>504618.1230009597</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759734.0271980196</v>
+        <v>759734.0271980197</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>768303.4062584921</v>
+        <v>768303.4062584923</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768303.4062584921</v>
+        <v>768303.4062584923</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768303.4062584924</v>
+        <v>768303.4062584921</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768303.4062584921</v>
+        <v>768303.4062584923</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>768303.4062584921</v>
+        <v>768303.4062584923</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>768303.406258492</v>
+        <v>768303.4062584923</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759734.0271980194</v>
+        <v>759734.0271980197</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759734.0271980197</v>
+        <v>759734.0271980198</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>286418.6517992343</v>
       </c>
       <c r="E2" t="n">
-        <v>286418.6517992342</v>
+        <v>286418.6517992341</v>
       </c>
       <c r="F2" t="n">
-        <v>286418.6517992342</v>
+        <v>286418.6517992343</v>
       </c>
       <c r="G2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="H2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="I2" t="n">
+        <v>289648.6675350939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="K2" t="n">
+        <v>289648.6675350936</v>
+      </c>
+      <c r="L2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="L2" t="n">
-        <v>289648.6675350939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289648.6675350938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289648.6675350939</v>
-      </c>
       <c r="O2" t="n">
-        <v>286418.651799234</v>
+        <v>286418.6517992342</v>
       </c>
       <c r="P2" t="n">
         <v>286418.6517992341</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
         <v>29404.49246814041</v>
@@ -26435,25 +26435,25 @@
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="M4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="M4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
         <v>44415.63883566284</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79470.05325364684</v>
+        <v>-80147.58211304089</v>
       </c>
       <c r="C6" t="n">
-        <v>95485.45663946727</v>
+        <v>94807.92778007317</v>
       </c>
       <c r="D6" t="n">
-        <v>-54607.38425649163</v>
+        <v>-54804.11492782008</v>
       </c>
       <c r="E6" t="n">
-        <v>172409.2661786764</v>
+        <v>172212.5355073479</v>
       </c>
       <c r="F6" t="n">
-        <v>172409.2661786764</v>
+        <v>172212.535507348</v>
       </c>
       <c r="G6" t="n">
-        <v>168131.8639388546</v>
+        <v>167951.2833462053</v>
       </c>
       <c r="H6" t="n">
-        <v>173863.5919393179</v>
+        <v>173683.0113466688</v>
       </c>
       <c r="I6" t="n">
-        <v>173863.5919393178</v>
+        <v>173683.0113466688</v>
       </c>
       <c r="J6" t="n">
-        <v>37268.79113342283</v>
+        <v>37088.21054077375</v>
       </c>
       <c r="K6" t="n">
-        <v>173863.5919393179</v>
+        <v>173683.0113466686</v>
       </c>
       <c r="L6" t="n">
-        <v>16296.62106178793</v>
+        <v>16116.04046913871</v>
       </c>
       <c r="M6" t="n">
-        <v>173863.5919393179</v>
+        <v>173683.0113466686</v>
       </c>
       <c r="N6" t="n">
-        <v>173863.5919393179</v>
+        <v>173683.0113466687</v>
       </c>
       <c r="O6" t="n">
-        <v>172409.2661786762</v>
+        <v>172212.5355073479</v>
       </c>
       <c r="P6" t="n">
-        <v>172409.2661786763</v>
+        <v>172212.5355073479</v>
       </c>
     </row>
   </sheetData>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025888</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>176.5650354103359</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.48459394538821</v>
-      </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.55973291537921</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
@@ -35026,10 +35026,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
+        <v>306.2096305948391</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>493.5667432552365</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>460.7914823284553</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>422.5377309976957</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>504.6010349596355</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>504.6010349596355</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>451.697741732609</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>18.22667726606003</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37867,7 +37867,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>636.9853194023932</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2320453030853</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
